--- a/Insulin_Rx.xlsx
+++ b/Insulin_Rx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmindrum1/Documents/gpt-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282554F9-A779-4940-8A06-54DB83C181D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AB66FA-0263-9146-9B9B-E1299462A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1620" windowWidth="27460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="2140" windowWidth="27400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Insulin Type</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Entruzity</t>
+  </si>
+  <si>
+    <t>Awiqli</t>
+  </si>
+  <si>
+    <t>Icodec</t>
   </si>
 </sst>
 </file>
@@ -503,9 +509,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1017"/>
+  <dimension ref="A1:AE1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -703,59 +711,56 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -765,7 +770,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
@@ -779,13 +784,13 @@
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
@@ -798,57 +803,34 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
         <v>100</v>
@@ -891,7 +873,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8">
         <v>100</v>
@@ -934,7 +916,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="8">
         <v>100</v>
@@ -970,89 +952,92 @@
       <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8">
+        <v>300</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" s="3">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>85</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(F17*30)</f>
-        <v>2550</v>
-      </c>
-      <c r="H17" s="3">
-        <f>SUM(G17/300)</f>
-        <v>8.5</v>
-      </c>
-      <c r="I17" s="3">
-        <f>SUM(F17*90)</f>
-        <v>7650</v>
-      </c>
-      <c r="J17" s="4">
-        <f>SUM(I17/300)</f>
-        <v>25.5</v>
-      </c>
-      <c r="K17" s="5">
-        <f>SUM(J17/5)</f>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D18" s="3">
         <v>100</v>
@@ -1060,10 +1045,31 @@
       <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="3">
+        <v>85</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(F18*30)</f>
+        <v>2550</v>
+      </c>
+      <c r="H18" s="3">
+        <f>SUM(G18/300)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I18" s="3">
+        <f>SUM(F18*90)</f>
+        <v>7650</v>
+      </c>
+      <c r="J18" s="4">
+        <f>SUM(I18/300)</f>
+        <v>25.5</v>
+      </c>
+      <c r="K18" s="5">
+        <f>SUM(J18/5)</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1071,18 +1077,18 @@
         <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>100</v>
       </c>
       <c r="E19" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1090,18 +1096,18 @@
         <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1111,35 +1117,35 @@
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="6">
-        <v>200</v>
+      <c r="D21" s="3">
+        <v>100</v>
       </c>
       <c r="E21" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="6">
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -1147,18 +1153,18 @@
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
         <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1166,26 +1172,26 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3">
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3">
         <v>100</v>
@@ -1196,7 +1202,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1204,18 +1210,18 @@
         <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
         <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1223,26 +1229,26 @@
         <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3">
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3">
         <v>100</v>
@@ -1253,15 +1259,15 @@
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3">
         <v>100</v>
@@ -1272,7 +1278,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3">
         <v>100</v>
@@ -1291,15 +1297,15 @@
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>100</v>
@@ -1310,7 +1316,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3">
         <v>100</v>
@@ -1337,7 +1343,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3">
         <v>100</v>
@@ -1349,53 +1355,58 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3">
+        <v>300</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-    </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
     </row>
     <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -1403,7 +1414,7 @@
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3">
         <v>100</v>
@@ -1417,7 +1428,7 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3">
         <v>100</v>
@@ -1427,18 +1438,28 @@
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3">
+        <v>500</v>
+      </c>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
     </row>
@@ -1486,7 +1507,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="10:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J51" s="4"/>
       <c r="K51" s="5"/>
     </row>
@@ -5353,6 +5374,10 @@
     <row r="1017" spans="10:11" ht="13" x14ac:dyDescent="0.15">
       <c r="J1017" s="4"/>
       <c r="K1017" s="5"/>
+    </row>
+    <row r="1018" spans="10:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="J1018" s="4"/>
+      <c r="K1018" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
